--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE97AAD-C2BC-433E-A36A-E3A48F92931F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9165355E-ACEC-44C9-8725-0D9AB98A026A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="2880" windowWidth="12645" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Part</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>IC CONTROLLR LI-ION 4.2V SOT23-5</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/68111fb.pdf</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/8584fb.pdf</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,12 +454,24 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{FEDFFB4F-04CE-4127-8FBB-931524114A57}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{2504DEDC-D23D-4F70-9B33-C503A2FDD332}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{8F8D56ED-A504-4CAF-8FBA-410BA0CD9E3D}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{D2308CF0-17EB-4CC7-BF3C-3B51DB73AA6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>